--- a/Sales Data 2023/01Jan2023.xlsx
+++ b/Sales Data 2023/01Jan2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nevinphilbert\Portfolio\Full-Stack Projects\Maliq Computer Sales Analysis\Sales Data 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C843C5-3B41-41EE-875A-F8C0247B6E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97848A7A-A3F1-43F9-89ED-E0C01482523C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{48DF34C1-D9AC-451E-B9A4-D8D54E16AC90}"/>
   </bookViews>
@@ -762,7 +762,7 @@
   <dimension ref="A1:J184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sales Data 2023/01Jan2023.xlsx
+++ b/Sales Data 2023/01Jan2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nevinphilbert\Portfolio\Full-Stack Projects\Maliq Computer Sales Analysis\Sales Data 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97848A7A-A3F1-43F9-89ED-E0C01482523C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EADC9AF-1F13-429B-985D-59294AA1AB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{48DF34C1-D9AC-451E-B9A4-D8D54E16AC90}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SalesData" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SalesData!$A$1:$J$184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SalesData!$A$1:$K$184</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="126">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>ORDERNUMBER_MONTH</t>
+  </si>
+  <si>
+    <t>PROFIT</t>
   </si>
 </sst>
 </file>
@@ -759,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462EAC0A-0397-42E0-AE4C-2F8CF093207F}">
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:K184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +782,7 @@
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -810,8 +813,11 @@
       <c r="J1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -837,8 +843,12 @@
         <f t="shared" ref="H2:H41" si="0">G2*D2</f>
         <v>50000</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>IF(E2="INTERNALSTORAGE",H2*52%,IF(E2="SERVICE",H2*100%,IF(E2="DISPLAY",H2*50%,IF(E2="RAM",H2*65%,IF(E2="SOFTWARE",H2*100%,IF(E2="BATTERY",H2*70%,IF(E2="KEYBOARD",H2*60%,IF(E2="ADAPTOR",H2*45%,IF(E2="MAINBOARD",H2*15%,IF(E2="ACCESSORIES",H2*25%,IF(E2="VGA",H2*15%,IF(E2="POWERSUPPLY",H2*40%,IF(E2="PROCESSOR",H2*20%,IF(E2="SECOND",H2*150%,IF(E2="CASING",H2*15%,IF(E2="MONITOR",H2*5%,IF(E2="EXTERNALSTORAGE",100000,H2)))))))))))))))))</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -864,8 +874,12 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">IF(E3="INTERNALSTORAGE",H3*52%,IF(E3="SERVICE",H3*100%,IF(E3="DISPLAY",H3*50%,IF(E3="RAM",H3*65%,IF(E3="SOFTWARE",H3*100%,IF(E3="BATTERY",H3*70%,IF(E3="KEYBOARD",H3*60%,IF(E3="ADAPTOR",H3*45%,IF(E3="MAINBOARD",H3*15%,IF(E3="ACCESSORIES",H3*25%,IF(E3="VGA",H3*15%,IF(E3="POWERSUPPLY",H3*40%,IF(E3="PROCESSOR",H3*20%,IF(E3="SECOND",H3*150%,IF(E3="CASING",H3*15%,IF(E3="MONITOR",H3*5%,IF(E3="EXTERNALSTORAGE",100000,H3)))))))))))))))))</f>
+        <v>385000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -894,8 +908,12 @@
       <c r="I4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -921,8 +939,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -948,8 +970,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -975,8 +1001,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1002,8 +1032,12 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1032,8 +1066,12 @@
       <c r="I9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1062,8 +1100,12 @@
       <c r="I10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1089,8 +1131,12 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1116,8 +1162,12 @@
         <f t="shared" si="0"/>
         <v>130000</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1143,8 +1193,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1170,8 +1224,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1197,8 +1255,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1224,8 +1286,12 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1251,8 +1317,12 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1278,8 +1348,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1305,8 +1379,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1332,8 +1410,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1359,8 +1441,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1386,8 +1472,12 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1413,8 +1503,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1440,8 +1534,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1467,8 +1565,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1494,8 +1596,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1521,8 +1627,12 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1548,8 +1658,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1575,8 +1689,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>227500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1602,8 +1720,12 @@
         <f t="shared" si="0"/>
         <v>175000</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>78750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1629,8 +1751,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1656,8 +1782,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1683,8 +1813,12 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1710,8 +1844,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1737,8 +1875,12 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1764,8 +1906,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1791,8 +1937,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1818,8 +1968,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>227500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1845,8 +1999,12 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1872,8 +2030,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1899,8 +2061,12 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1923,11 +2089,15 @@
         <v>600000</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" ref="H42:H44" si="1">G42*D42</f>
+        <f t="shared" ref="H42:H44" si="2">G42*D42</f>
         <v>600000</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1950,282 +2120,326 @@
         <v>200000</v>
       </c>
       <c r="H43" s="2">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>44933</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="2">
+        <v>650000</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="2"/>
+        <v>650000</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>97500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44933</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="2">
+        <v>300000</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" ref="H45:H76" si="3">G45*D45</f>
+        <v>300000</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44933</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44933</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="3"/>
+        <v>150000</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>44934</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="2">
+        <v>70000</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="3"/>
+        <v>70000</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44934</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44934</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44934</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44934</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" s="2">
+        <v>650000</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="3"/>
+        <v>650000</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>97500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44935</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
-        <v>44933</v>
-      </c>
-      <c r="C44">
-        <v>7</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" s="2">
-        <v>650000</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="1"/>
-        <v>650000</v>
-      </c>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1">
-        <v>44933</v>
-      </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" s="2">
-        <v>300000</v>
-      </c>
-      <c r="H45" s="2">
-        <f t="shared" ref="H45:H76" si="2">G45*D45</f>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>44933</v>
-      </c>
-      <c r="C46">
-        <v>9</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G46" s="2">
-        <v>50000</v>
-      </c>
-      <c r="H46" s="2">
-        <f t="shared" si="2"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <v>44933</v>
-      </c>
-      <c r="C47">
-        <v>10</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" s="2">
-        <v>150000</v>
-      </c>
-      <c r="H47" s="2">
-        <f t="shared" si="2"/>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <v>44934</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" s="2">
-        <v>70000</v>
-      </c>
-      <c r="H48" s="2">
-        <f t="shared" si="2"/>
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1">
-        <v>44934</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" t="s">
-        <v>114</v>
-      </c>
-      <c r="G49" s="2">
-        <v>50000</v>
-      </c>
-      <c r="H49" s="2">
-        <f t="shared" si="2"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1">
-        <v>44934</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="2">
-        <v>100000</v>
-      </c>
-      <c r="H50" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1">
-        <v>44934</v>
-      </c>
-      <c r="C51">
-        <v>4</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" s="2">
-        <v>100000</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1">
-        <v>44934</v>
-      </c>
-      <c r="C52">
-        <v>5</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" s="2">
-        <v>650000</v>
-      </c>
-      <c r="H52" s="2">
-        <f t="shared" si="2"/>
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1">
-        <v>44935</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" t="s">
-        <v>50</v>
-      </c>
-      <c r="G53" s="2">
-        <v>50000</v>
-      </c>
-      <c r="H53" s="2">
-        <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2248,11 +2462,15 @@
         <v>100000</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2275,11 +2493,15 @@
         <v>650000</v>
       </c>
       <c r="H55" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2302,11 +2524,15 @@
         <v>150000</v>
       </c>
       <c r="H56" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2329,11 +2555,15 @@
         <v>200000</v>
       </c>
       <c r="H57" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2356,11 +2586,15 @@
         <v>200000</v>
       </c>
       <c r="H58" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2383,11 +2617,15 @@
         <v>50000</v>
       </c>
       <c r="H59" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2410,11 +2648,15 @@
         <v>50000</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2437,11 +2679,15 @@
         <v>100000</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2464,11 +2710,15 @@
         <v>600000</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600000</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2491,11 +2741,15 @@
         <v>500000</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2518,11 +2772,15 @@
         <v>35000</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35000</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2545,11 +2803,15 @@
         <v>500000</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2572,11 +2834,15 @@
         <v>400000</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2599,11 +2865,15 @@
         <v>350000</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>700000</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <f t="shared" ref="K67:K130" si="4">IF(E67="INTERNALSTORAGE",H67*52%,IF(E67="SERVICE",H67*100%,IF(E67="DISPLAY",H67*50%,IF(E67="RAM",H67*65%,IF(E67="SOFTWARE",H67*100%,IF(E67="BATTERY",H67*70%,IF(E67="KEYBOARD",H67*60%,IF(E67="ADAPTOR",H67*45%,IF(E67="MAINBOARD",H67*15%,IF(E67="ACCESSORIES",H67*25%,IF(E67="VGA",H67*15%,IF(E67="POWERSUPPLY",H67*40%,IF(E67="PROCESSOR",H67*20%,IF(E67="SECOND",H67*150%,IF(E67="CASING",H67*15%,IF(E67="MONITOR",H67*5%,IF(E67="EXTERNALSTORAGE",100000,H67)))))))))))))))))</f>
+        <v>455000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2626,11 +2896,15 @@
         <v>250000</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <f t="shared" si="4"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2653,11 +2927,15 @@
         <v>500000</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <f t="shared" si="4"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2680,11 +2958,15 @@
         <v>300000</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <f t="shared" si="4"/>
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2707,11 +2989,15 @@
         <v>450000</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <f t="shared" si="4"/>
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2734,11 +3020,15 @@
         <v>100000</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2761,11 +3051,15 @@
         <v>335000</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>335000</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <f t="shared" si="4"/>
+        <v>150750</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2788,11 +3082,15 @@
         <v>100000</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2815,11 +3113,15 @@
         <v>650000</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <f t="shared" si="4"/>
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2842,11 +3144,15 @@
         <v>100000</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <f t="shared" si="4"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2869,11 +3175,15 @@
         <v>350000</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" ref="H77:H108" si="3">G77*D77</f>
+        <f t="shared" ref="H77:H108" si="5">G77*D77</f>
         <v>350000</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <f t="shared" si="4"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2896,11 +3206,15 @@
         <v>130000</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>130000</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <f t="shared" si="4"/>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2923,12 +3237,16 @@
         <v>650000</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>650000</v>
       </c>
       <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <f t="shared" si="4"/>
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2951,11 +3269,15 @@
         <v>500000</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <f t="shared" si="4"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2978,11 +3300,15 @@
         <v>650000</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <f t="shared" si="4"/>
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3005,11 +3331,15 @@
         <v>500000</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <f t="shared" si="4"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3032,11 +3362,15 @@
         <v>50000</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3059,11 +3393,15 @@
         <v>0</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3086,11 +3424,15 @@
         <v>200000</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3113,11 +3455,15 @@
         <v>250000</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <f t="shared" si="4"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3140,11 +3486,15 @@
         <v>325000</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>325000</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <f t="shared" si="4"/>
+        <v>81250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3167,11 +3517,15 @@
         <v>200000</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3194,11 +3548,15 @@
         <v>480000</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>480000</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <f t="shared" si="4"/>
+        <v>312000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3221,11 +3579,15 @@
         <v>100000</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3248,11 +3610,15 @@
         <v>415000</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>415000</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <f t="shared" si="4"/>
+        <v>269750</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3275,11 +3641,15 @@
         <v>500000</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <f t="shared" si="4"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3302,11 +3672,15 @@
         <v>500000</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <f t="shared" si="4"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3329,11 +3703,15 @@
         <v>200000</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <f t="shared" si="4"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3356,11 +3734,15 @@
         <v>630000</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>630000</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <f t="shared" si="4"/>
+        <v>315000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3383,11 +3765,15 @@
         <v>200000</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3410,11 +3796,15 @@
         <v>450000</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <f t="shared" si="4"/>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3437,11 +3827,15 @@
         <v>550000</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <f t="shared" si="4"/>
+        <v>286000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3464,11 +3858,15 @@
         <v>50000</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3491,11 +3889,15 @@
         <v>200000</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3518,11 +3920,15 @@
         <v>300000</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <f t="shared" si="4"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3545,11 +3951,15 @@
         <v>50000</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3572,11 +3982,15 @@
         <v>50000</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3599,11 +4013,15 @@
         <v>500000</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <f t="shared" si="4"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3626,11 +4044,15 @@
         <v>100000</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3653,11 +4075,15 @@
         <v>180000</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>180000</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <f t="shared" si="4"/>
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3680,11 +4106,15 @@
         <v>200000</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3707,11 +4137,15 @@
         <v>500000</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <f t="shared" si="4"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3734,11 +4168,15 @@
         <v>300000</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" ref="H109:H120" si="4">G109*D109</f>
+        <f t="shared" ref="H109:H120" si="6">G109*D109</f>
         <v>300000</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <f t="shared" si="4"/>
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3761,11 +4199,15 @@
         <v>180000</v>
       </c>
       <c r="H110" s="2">
+        <f t="shared" si="6"/>
+        <v>180000</v>
+      </c>
+      <c r="K110">
         <f t="shared" si="4"/>
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3788,11 +4230,15 @@
         <v>50000</v>
       </c>
       <c r="H111" s="2">
+        <f t="shared" si="6"/>
+        <v>50000</v>
+      </c>
+      <c r="K111">
         <f t="shared" si="4"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3815,11 +4261,15 @@
         <v>200000</v>
       </c>
       <c r="H112" s="2">
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="K112">
         <f t="shared" si="4"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3842,11 +4292,15 @@
         <v>300000</v>
       </c>
       <c r="H113" s="2">
+        <f t="shared" si="6"/>
+        <v>300000</v>
+      </c>
+      <c r="K113">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3869,11 +4323,15 @@
         <v>450000</v>
       </c>
       <c r="H114" s="2">
+        <f t="shared" si="6"/>
+        <v>450000</v>
+      </c>
+      <c r="K114">
         <f t="shared" si="4"/>
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3896,11 +4354,15 @@
         <v>250000</v>
       </c>
       <c r="H115" s="2">
+        <f t="shared" si="6"/>
+        <v>500000</v>
+      </c>
+      <c r="K115">
         <f t="shared" si="4"/>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3923,11 +4385,15 @@
         <v>550000</v>
       </c>
       <c r="H116" s="2">
+        <f t="shared" si="6"/>
+        <v>550000</v>
+      </c>
+      <c r="K116">
         <f t="shared" si="4"/>
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>385000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3950,11 +4416,15 @@
         <v>100000</v>
       </c>
       <c r="H117" s="2">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="K117">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3977,11 +4447,15 @@
         <v>100000</v>
       </c>
       <c r="H118" s="2">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="K118">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4004,11 +4478,15 @@
         <v>200000</v>
       </c>
       <c r="H119" s="2">
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="K119">
         <f t="shared" si="4"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4031,11 +4509,15 @@
         <v>250000</v>
       </c>
       <c r="H120" s="2">
+        <f t="shared" si="6"/>
+        <v>250000</v>
+      </c>
+      <c r="K120">
         <f t="shared" si="4"/>
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4061,8 +4543,12 @@
         <f>D121*G121</f>
         <v>800000</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <f t="shared" si="4"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4088,8 +4574,12 @@
         <f>D122*G122</f>
         <v>50000</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4116,8 +4606,12 @@
         <v>35000</v>
       </c>
       <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K123">
+        <f t="shared" si="4"/>
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4140,11 +4634,15 @@
         <v>100000</v>
       </c>
       <c r="H124" s="2">
-        <f t="shared" ref="H124:H184" si="5">D124*G124</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H124:H184" si="7">D124*G124</f>
+        <v>100000</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4167,11 +4665,15 @@
         <v>750000</v>
       </c>
       <c r="H125" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>750000</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K125">
+        <f t="shared" si="4"/>
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4194,11 +4696,15 @@
         <v>50000</v>
       </c>
       <c r="H126" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4221,11 +4727,15 @@
         <v>100000</v>
       </c>
       <c r="H127" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4248,11 +4758,15 @@
         <v>150000</v>
       </c>
       <c r="H128" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4275,11 +4789,15 @@
         <v>300000</v>
       </c>
       <c r="H129" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4302,11 +4820,15 @@
         <v>20000</v>
       </c>
       <c r="H130" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4329,11 +4851,15 @@
         <v>100000</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K131">
+        <f t="shared" ref="K131:K184" si="8">IF(E131="INTERNALSTORAGE",H131*52%,IF(E131="SERVICE",H131*100%,IF(E131="DISPLAY",H131*50%,IF(E131="RAM",H131*65%,IF(E131="SOFTWARE",H131*100%,IF(E131="BATTERY",H131*70%,IF(E131="KEYBOARD",H131*60%,IF(E131="ADAPTOR",H131*45%,IF(E131="MAINBOARD",H131*15%,IF(E131="ACCESSORIES",H131*25%,IF(E131="VGA",H131*15%,IF(E131="POWERSUPPLY",H131*40%,IF(E131="PROCESSOR",H131*20%,IF(E131="SECOND",H131*150%,IF(E131="CASING",H131*15%,IF(E131="MONITOR",H131*5%,IF(E131="EXTERNALSTORAGE",100000,H131)))))))))))))))))</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4356,11 +4882,15 @@
         <v>100000</v>
       </c>
       <c r="H132" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4383,11 +4913,15 @@
         <v>550000</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <f t="shared" si="8"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4410,11 +4944,15 @@
         <v>100000</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <f t="shared" si="8"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4437,11 +4975,15 @@
         <v>100000</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4464,11 +5006,15 @@
         <v>180000</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>180000</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K136">
+        <f t="shared" si="8"/>
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4491,11 +5037,15 @@
         <v>100000</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4518,11 +5068,15 @@
         <v>100000</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4545,11 +5099,15 @@
         <v>600000</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>600000</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K139">
+        <f t="shared" si="8"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4572,11 +5130,15 @@
         <v>200000</v>
       </c>
       <c r="H140" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K140">
+        <f t="shared" si="8"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4599,11 +5161,15 @@
         <v>200000</v>
       </c>
       <c r="H141" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K141">
+        <f t="shared" si="8"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4626,11 +5192,15 @@
         <v>150000</v>
       </c>
       <c r="H142" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K142">
+        <f t="shared" si="8"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4653,11 +5223,15 @@
         <v>150000</v>
       </c>
       <c r="H143" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <f t="shared" si="8"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4680,11 +5254,15 @@
         <v>550000</v>
       </c>
       <c r="H144" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <f t="shared" si="8"/>
+        <v>82500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4707,11 +5285,15 @@
         <v>100000</v>
       </c>
       <c r="H145" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4734,11 +5316,15 @@
         <v>250000</v>
       </c>
       <c r="H146" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K146">
+        <f t="shared" si="8"/>
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4761,11 +5347,15 @@
         <v>100000</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4788,11 +5378,15 @@
         <v>200000</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K148">
+        <f t="shared" si="8"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4815,11 +5409,15 @@
         <v>100000</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4842,11 +5440,15 @@
         <v>100000</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4869,11 +5471,15 @@
         <v>350000</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K151">
+        <f t="shared" si="8"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4896,11 +5502,15 @@
         <v>180000</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>180000</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K152">
+        <f t="shared" si="8"/>
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4923,11 +5533,15 @@
         <v>100000</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4950,11 +5564,15 @@
         <v>400000</v>
       </c>
       <c r="H154" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K154">
+        <f t="shared" si="8"/>
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4977,11 +5595,15 @@
         <v>200000</v>
       </c>
       <c r="H155" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K155">
+        <f t="shared" si="8"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5004,11 +5626,15 @@
         <v>700000</v>
       </c>
       <c r="H156" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>700000</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K156">
+        <f t="shared" si="8"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5031,11 +5657,15 @@
         <v>150000</v>
       </c>
       <c r="H157" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K157">
+        <f t="shared" si="8"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5058,11 +5688,15 @@
         <v>150000</v>
       </c>
       <c r="H158" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K158">
+        <f t="shared" si="8"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5085,11 +5719,15 @@
         <v>130000</v>
       </c>
       <c r="H159" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>130000</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K159">
+        <f t="shared" si="8"/>
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5112,11 +5750,15 @@
         <v>50000</v>
       </c>
       <c r="H160" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K160">
+        <f t="shared" si="8"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5139,11 +5781,15 @@
         <v>50000</v>
       </c>
       <c r="H161" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K161">
+        <f t="shared" si="8"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5166,11 +5812,15 @@
         <v>100000</v>
       </c>
       <c r="H162" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5193,11 +5843,15 @@
         <v>50000</v>
       </c>
       <c r="H163" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K163">
+        <f t="shared" si="8"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5220,11 +5874,15 @@
         <v>700000</v>
       </c>
       <c r="H164" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>700000</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K164">
+        <f t="shared" si="8"/>
+        <v>364000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5247,11 +5905,15 @@
         <v>100000</v>
       </c>
       <c r="H165" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5274,11 +5936,15 @@
         <v>700000</v>
       </c>
       <c r="H166" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>700000</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K166">
+        <f t="shared" si="8"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5301,11 +5967,15 @@
         <v>250000</v>
       </c>
       <c r="H167" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K167">
+        <f t="shared" si="8"/>
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5328,11 +5998,15 @@
         <v>100000</v>
       </c>
       <c r="H168" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5355,11 +6029,15 @@
         <v>550000</v>
       </c>
       <c r="H169" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K169">
+        <f t="shared" si="8"/>
+        <v>286000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5382,11 +6060,15 @@
         <v>400000</v>
       </c>
       <c r="H170" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K170">
+        <f t="shared" si="8"/>
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5409,11 +6091,15 @@
         <v>300000</v>
       </c>
       <c r="H171" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K171">
+        <f t="shared" si="8"/>
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5436,11 +6122,15 @@
         <v>200000</v>
       </c>
       <c r="H172" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K172">
+        <f t="shared" si="8"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5463,11 +6153,15 @@
         <v>100000</v>
       </c>
       <c r="H173" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5490,11 +6184,15 @@
         <v>100000</v>
       </c>
       <c r="H174" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5517,11 +6215,15 @@
         <v>100000</v>
       </c>
       <c r="H175" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5544,11 +6246,15 @@
         <v>50000</v>
       </c>
       <c r="H176" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K176">
+        <f t="shared" si="8"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5571,11 +6277,15 @@
         <v>100000</v>
       </c>
       <c r="H177" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5598,11 +6308,15 @@
         <v>550000</v>
       </c>
       <c r="H178" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K178">
+        <f t="shared" si="8"/>
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5625,11 +6339,15 @@
         <v>550000</v>
       </c>
       <c r="H179" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K179">
+        <f t="shared" si="8"/>
+        <v>286000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5652,11 +6370,15 @@
         <v>200000</v>
       </c>
       <c r="H180" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K180">
+        <f t="shared" si="8"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5679,11 +6401,15 @@
         <v>100000</v>
       </c>
       <c r="H181" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5706,11 +6432,15 @@
         <v>200000</v>
       </c>
       <c r="H182" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K182">
+        <f t="shared" si="8"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5733,11 +6463,15 @@
         <v>550000</v>
       </c>
       <c r="H183" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K183">
+        <f t="shared" si="8"/>
+        <v>286000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5760,12 +6494,16 @@
         <v>650000</v>
       </c>
       <c r="H184" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>650000</v>
       </c>
+      <c r="K184">
+        <f t="shared" si="8"/>
+        <v>325000</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J184" xr:uid="{462EAC0A-0397-42E0-AE4C-2F8CF093207F}"/>
+  <autoFilter ref="A1:K184" xr:uid="{462EAC0A-0397-42E0-AE4C-2F8CF093207F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sales Data 2023/01Jan2023.xlsx
+++ b/Sales Data 2023/01Jan2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nevinphilbert\Portfolio\Full-Stack Projects\Maliq Computer Sales Analysis\Sales Data 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EADC9AF-1F13-429B-985D-59294AA1AB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790395B0-6A1A-4FEA-A862-BD25C384CA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{48DF34C1-D9AC-451E-B9A4-D8D54E16AC90}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="127">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -406,14 +406,18 @@
   </si>
   <si>
     <t>PROFIT</t>
+  </si>
+  <si>
+    <t>SECOND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_([$IDR]\ * #,##0_);_([$IDR]\ * \(#,##0\);_([$IDR]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$IDR]\ * #,##0_);_([$IDR]\ * \(#,##0\);_([$IDR]\ * &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -444,10 +448,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,10 +767,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462EAC0A-0397-42E0-AE4C-2F8CF093207F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,6 +786,7 @@
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -817,7 +824,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -843,12 +850,12 @@
         <f t="shared" ref="H2:H41" si="0">G2*D2</f>
         <v>50000</v>
       </c>
-      <c r="K2">
-        <f>IF(E2="INTERNALSTORAGE",H2*52%,IF(E2="SERVICE",H2*100%,IF(E2="DISPLAY",H2*50%,IF(E2="RAM",H2*65%,IF(E2="SOFTWARE",H2*100%,IF(E2="BATTERY",H2*70%,IF(E2="KEYBOARD",H2*60%,IF(E2="ADAPTOR",H2*45%,IF(E2="MAINBOARD",H2*15%,IF(E2="ACCESSORIES",H2*25%,IF(E2="VGA",H2*15%,IF(E2="POWERSUPPLY",H2*40%,IF(E2="PROCESSOR",H2*20%,IF(E2="SECOND",H2*150%,IF(E2="CASING",H2*15%,IF(E2="MONITOR",H2*5%,IF(E2="EXTERNALSTORAGE",100000,H2)))))))))))))))))</f>
+      <c r="K2" s="3">
+        <f>IF(E2="INTERNALSTORAGE",H2*52%,IF(E2="SERVICE",H2*100%,IF(E2="DISPLAY",H2*50%,IF(E2="RAM",H2*52%,IF(E2="SOFTWARE",H2*100%,IF(E2="BATTERY",H2*45%,IF(E2="KEYBOARD",150000,IF(E2="ADAPTOR",H2*40%,IF(E2="MAINBOARD",100000,IF(E2="ACCESSORIES",H2*35%,IF(E2="VGA",100000,IF(E2="POWERSUPPLY",H2*30%,IF(E2="PROCESSOR",150000,IF(E2="SECOND",H2*150%,IF(E2="CASING",100000,IF(E2="MONITOR",100000,IF(E2="EXTERNALSTORAGE",100000,H2)))))))))))))))))</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -874,12 +881,12 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K66" si="1">IF(E3="INTERNALSTORAGE",H3*52%,IF(E3="SERVICE",H3*100%,IF(E3="DISPLAY",H3*50%,IF(E3="RAM",H3*65%,IF(E3="SOFTWARE",H3*100%,IF(E3="BATTERY",H3*70%,IF(E3="KEYBOARD",H3*60%,IF(E3="ADAPTOR",H3*45%,IF(E3="MAINBOARD",H3*15%,IF(E3="ACCESSORIES",H3*25%,IF(E3="VGA",H3*15%,IF(E3="POWERSUPPLY",H3*40%,IF(E3="PROCESSOR",H3*20%,IF(E3="SECOND",H3*150%,IF(E3="CASING",H3*15%,IF(E3="MONITOR",H3*5%,IF(E3="EXTERNALSTORAGE",100000,H3)))))))))))))))))</f>
-        <v>385000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K66" si="1">IF(E3="INTERNALSTORAGE",H3*52%,IF(E3="SERVICE",H3*100%,IF(E3="DISPLAY",H3*50%,IF(E3="RAM",H3*52%,IF(E3="SOFTWARE",H3*100%,IF(E3="BATTERY",H3*45%,IF(E3="KEYBOARD",150000,IF(E3="ADAPTOR",H3*40%,IF(E3="MAINBOARD",100000,IF(E3="ACCESSORIES",H3*35%,IF(E3="VGA",100000,IF(E3="POWERSUPPLY",H3*30%,IF(E3="PROCESSOR",150000,IF(E3="SECOND",H3*150%,IF(E3="CASING",100000,IF(E3="MONITOR",100000,IF(E3="EXTERNALSTORAGE",100000,H3)))))))))))))))))</f>
+        <v>247500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -908,12 +915,12 @@
       <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -939,12 +946,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -970,12 +977,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <f t="shared" si="1"/>
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1001,12 +1008,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <f t="shared" si="1"/>
         <v>156000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1032,12 +1039,12 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
         <v>700000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1066,12 +1073,12 @@
       <c r="I9" t="s">
         <v>15</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
-        <v>32500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1100,12 +1107,12 @@
       <c r="I10" t="s">
         <v>15</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1131,12 +1138,12 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1162,12 +1169,12 @@
         <f t="shared" si="0"/>
         <v>130000</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <f t="shared" si="1"/>
-        <v>32500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1193,12 +1200,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1224,12 +1231,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <f t="shared" si="1"/>
         <v>156000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1255,12 +1262,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <f t="shared" si="1"/>
         <v>156000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1286,7 +1293,7 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <f t="shared" si="1"/>
         <v>208000</v>
       </c>
@@ -1305,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -1317,12 +1324,12 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <f t="shared" si="1"/>
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1348,12 +1355,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1379,12 +1386,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <f t="shared" si="1"/>
         <v>182000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1410,12 +1417,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1441,12 +1448,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <f t="shared" si="1"/>
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1472,12 +1479,12 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <f t="shared" si="1"/>
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1503,12 +1510,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1534,12 +1541,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1565,12 +1572,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <f t="shared" si="1"/>
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1596,12 +1603,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <f t="shared" si="1"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1627,12 +1634,12 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1658,12 +1665,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1689,12 +1696,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <f t="shared" si="1"/>
-        <v>227500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1720,12 +1727,12 @@
         <f t="shared" si="0"/>
         <v>175000</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <f t="shared" si="1"/>
-        <v>78750</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1751,12 +1758,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1782,12 +1789,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1813,12 +1820,12 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <f t="shared" si="1"/>
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1844,12 +1851,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1875,12 +1882,12 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <f t="shared" si="1"/>
-        <v>67500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1906,12 +1913,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1937,12 +1944,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="3">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1968,12 +1975,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
         <f t="shared" si="1"/>
-        <v>227500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1999,12 +2006,12 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="3">
         <f t="shared" si="1"/>
         <v>208000</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2030,12 +2037,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
         <f t="shared" si="1"/>
         <v>156000</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2061,12 +2068,12 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
         <f t="shared" si="1"/>
         <v>78000</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2092,12 +2099,12 @@
         <f t="shared" ref="H42:H44" si="2">G42*D42</f>
         <v>600000</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <f t="shared" si="1"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2123,12 +2130,12 @@
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
         <f t="shared" si="1"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2155,12 +2162,12 @@
         <v>650000</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="K44">
+      <c r="K44" s="3">
         <f t="shared" si="1"/>
-        <v>97500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2186,12 +2193,12 @@
         <f t="shared" ref="H45:H76" si="3">G45*D45</f>
         <v>300000</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2217,12 +2224,12 @@
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="3">
         <f t="shared" si="1"/>
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2248,12 +2255,12 @@
         <f t="shared" si="3"/>
         <v>150000</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <f t="shared" si="1"/>
-        <v>67500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2279,12 +2286,12 @@
         <f t="shared" si="3"/>
         <v>70000</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="3">
         <f t="shared" si="1"/>
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2310,12 +2317,12 @@
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2341,12 +2348,12 @@
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2372,12 +2379,12 @@
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2403,12 +2410,12 @@
         <f t="shared" si="3"/>
         <v>650000</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="3">
         <f t="shared" si="1"/>
-        <v>97500</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2434,12 +2441,12 @@
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="3">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2465,12 +2472,12 @@
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2496,12 +2503,12 @@
         <f t="shared" si="3"/>
         <v>650000</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="3">
         <f t="shared" si="1"/>
         <v>325000</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2527,12 +2534,12 @@
         <f t="shared" si="3"/>
         <v>150000</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="3">
         <f t="shared" si="1"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2558,12 +2565,12 @@
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="3">
         <f t="shared" si="1"/>
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2589,12 +2596,12 @@
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="3">
         <f t="shared" si="1"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2620,12 +2627,12 @@
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="3">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2651,12 +2658,12 @@
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="3">
         <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2682,12 +2689,12 @@
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2713,12 +2720,12 @@
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="3">
         <f t="shared" si="1"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2744,12 +2751,12 @@
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="3">
         <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2775,12 +2782,12 @@
         <f t="shared" si="3"/>
         <v>35000</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="3">
         <f t="shared" si="1"/>
-        <v>8750</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2806,12 +2813,12 @@
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="3">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2837,12 +2844,12 @@
         <f t="shared" si="3"/>
         <v>400000</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="3">
         <f t="shared" si="1"/>
         <v>208000</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2868,12 +2875,12 @@
         <f t="shared" si="3"/>
         <v>700000</v>
       </c>
-      <c r="K67">
-        <f t="shared" ref="K67:K130" si="4">IF(E67="INTERNALSTORAGE",H67*52%,IF(E67="SERVICE",H67*100%,IF(E67="DISPLAY",H67*50%,IF(E67="RAM",H67*65%,IF(E67="SOFTWARE",H67*100%,IF(E67="BATTERY",H67*70%,IF(E67="KEYBOARD",H67*60%,IF(E67="ADAPTOR",H67*45%,IF(E67="MAINBOARD",H67*15%,IF(E67="ACCESSORIES",H67*25%,IF(E67="VGA",H67*15%,IF(E67="POWERSUPPLY",H67*40%,IF(E67="PROCESSOR",H67*20%,IF(E67="SECOND",H67*150%,IF(E67="CASING",H67*15%,IF(E67="MONITOR",H67*5%,IF(E67="EXTERNALSTORAGE",100000,H67)))))))))))))))))</f>
-        <v>455000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K67" s="3">
+        <f t="shared" ref="K67:K130" si="4">IF(E67="INTERNALSTORAGE",H67*52%,IF(E67="SERVICE",H67*100%,IF(E67="DISPLAY",H67*50%,IF(E67="RAM",H67*52%,IF(E67="SOFTWARE",H67*100%,IF(E67="BATTERY",H67*45%,IF(E67="KEYBOARD",150000,IF(E67="ADAPTOR",H67*40%,IF(E67="MAINBOARD",100000,IF(E67="ACCESSORIES",H67*35%,IF(E67="VGA",100000,IF(E67="POWERSUPPLY",H67*30%,IF(E67="PROCESSOR",150000,IF(E67="SECOND",H67*150%,IF(E67="CASING",100000,IF(E67="MONITOR",100000,IF(E67="EXTERNALSTORAGE",100000,H67)))))))))))))))))</f>
+        <v>364000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2899,12 +2906,12 @@
         <f t="shared" si="3"/>
         <v>250000</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="3">
         <f t="shared" si="4"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2930,12 +2937,12 @@
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="3">
         <f t="shared" si="4"/>
         <v>500000</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2961,12 +2968,12 @@
         <f t="shared" si="3"/>
         <v>300000</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="3">
         <f t="shared" si="4"/>
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2992,12 +2999,12 @@
         <f t="shared" si="3"/>
         <v>450000</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="3">
         <f t="shared" si="4"/>
         <v>234000</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3023,12 +3030,12 @@
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3054,12 +3061,12 @@
         <f t="shared" si="3"/>
         <v>335000</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="3">
         <f t="shared" si="4"/>
-        <v>150750</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>134000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3085,12 +3092,12 @@
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3116,12 +3123,12 @@
         <f t="shared" si="3"/>
         <v>650000</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="3">
         <f t="shared" si="4"/>
         <v>325000</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3147,12 +3154,12 @@
         <f t="shared" si="3"/>
         <v>400000</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="3">
         <f t="shared" si="4"/>
         <v>400000</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3178,12 +3185,12 @@
         <f t="shared" ref="H77:H108" si="5">G77*D77</f>
         <v>350000</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="3">
         <f t="shared" si="4"/>
         <v>182000</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3209,12 +3216,12 @@
         <f t="shared" si="5"/>
         <v>130000</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="3">
         <f t="shared" si="4"/>
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3241,12 +3248,12 @@
         <v>650000</v>
       </c>
       <c r="I79" s="2"/>
-      <c r="K79">
+      <c r="K79" s="3">
         <f t="shared" si="4"/>
         <v>325000</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3272,12 +3279,12 @@
         <f t="shared" si="5"/>
         <v>500000</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="3">
         <f t="shared" si="4"/>
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3303,12 +3310,12 @@
         <f t="shared" si="5"/>
         <v>650000</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="3">
         <f t="shared" si="4"/>
         <v>325000</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3334,12 +3341,12 @@
         <f t="shared" si="5"/>
         <v>500000</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="3">
         <f t="shared" si="4"/>
         <v>500000</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3365,12 +3372,12 @@
         <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="3">
         <f t="shared" si="4"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3396,12 +3403,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3427,12 +3434,12 @@
         <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="3">
         <f t="shared" si="4"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3458,12 +3465,12 @@
         <f t="shared" si="5"/>
         <v>250000</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="3">
         <f t="shared" si="4"/>
         <v>250000</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3489,12 +3496,12 @@
         <f t="shared" si="5"/>
         <v>325000</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="3">
         <f t="shared" si="4"/>
-        <v>81250</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>113750</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3520,12 +3527,12 @@
         <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="3">
         <f t="shared" si="4"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3551,12 +3558,12 @@
         <f t="shared" si="5"/>
         <v>480000</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="3">
         <f t="shared" si="4"/>
-        <v>312000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>249600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3582,12 +3589,12 @@
         <f t="shared" si="5"/>
         <v>100000</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3613,12 +3620,12 @@
         <f t="shared" si="5"/>
         <v>415000</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="3">
         <f t="shared" si="4"/>
-        <v>269750</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>215800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3644,12 +3651,12 @@
         <f t="shared" si="5"/>
         <v>500000</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="3">
         <f t="shared" si="4"/>
         <v>260000</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3675,12 +3682,12 @@
         <f t="shared" si="5"/>
         <v>500000</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="3">
         <f t="shared" si="4"/>
         <v>260000</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3706,12 +3713,12 @@
         <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="3">
         <f t="shared" si="4"/>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3737,12 +3744,12 @@
         <f t="shared" si="5"/>
         <v>630000</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="3">
         <f t="shared" si="4"/>
         <v>315000</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3768,12 +3775,12 @@
         <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="3">
         <f t="shared" si="4"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3799,12 +3806,12 @@
         <f t="shared" si="5"/>
         <v>450000</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="3">
         <f t="shared" si="4"/>
         <v>225000</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3830,12 +3837,12 @@
         <f t="shared" si="5"/>
         <v>550000</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="3">
         <f t="shared" si="4"/>
         <v>286000</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3861,12 +3868,12 @@
         <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="3">
         <f t="shared" si="4"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3892,12 +3899,12 @@
         <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="3">
         <f t="shared" si="4"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3923,12 +3930,12 @@
         <f t="shared" si="5"/>
         <v>300000</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="3">
         <f t="shared" si="4"/>
         <v>156000</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3954,12 +3961,12 @@
         <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="3">
         <f t="shared" si="4"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3985,12 +3992,12 @@
         <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="3">
         <f t="shared" si="4"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4016,12 +4023,12 @@
         <f t="shared" si="5"/>
         <v>500000</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="3">
         <f t="shared" si="4"/>
         <v>500000</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4047,12 +4054,12 @@
         <f t="shared" si="5"/>
         <v>100000</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4078,12 +4085,12 @@
         <f t="shared" si="5"/>
         <v>180000</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="3">
         <f t="shared" si="4"/>
-        <v>81000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4109,12 +4116,12 @@
         <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="3">
         <f t="shared" si="4"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4140,12 +4147,12 @@
         <f t="shared" si="5"/>
         <v>500000</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="3">
         <f t="shared" si="4"/>
         <v>260000</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4171,12 +4178,12 @@
         <f t="shared" ref="H109:H120" si="6">G109*D109</f>
         <v>300000</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="3">
         <f t="shared" si="4"/>
-        <v>195000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4202,12 +4209,12 @@
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="3">
         <f t="shared" si="4"/>
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4233,12 +4240,12 @@
         <f t="shared" si="6"/>
         <v>50000</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="3">
         <f t="shared" si="4"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4264,12 +4271,12 @@
         <f t="shared" si="6"/>
         <v>200000</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="3">
         <f t="shared" si="4"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4295,12 +4302,12 @@
         <f t="shared" si="6"/>
         <v>300000</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="3">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4326,12 +4333,12 @@
         <f t="shared" si="6"/>
         <v>450000</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="3">
         <f t="shared" si="4"/>
         <v>234000</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4357,12 +4364,12 @@
         <f t="shared" si="6"/>
         <v>500000</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="3">
         <f t="shared" si="4"/>
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4388,12 +4395,12 @@
         <f t="shared" si="6"/>
         <v>550000</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="3">
         <f t="shared" si="4"/>
-        <v>385000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+        <v>247500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4419,12 +4426,12 @@
         <f t="shared" si="6"/>
         <v>100000</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4450,12 +4457,12 @@
         <f t="shared" si="6"/>
         <v>100000</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4481,12 +4488,12 @@
         <f t="shared" si="6"/>
         <v>200000</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="3">
         <f t="shared" si="4"/>
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4512,9 +4519,9 @@
         <f t="shared" si="6"/>
         <v>250000</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="3">
         <f t="shared" si="4"/>
-        <v>62500</v>
+        <v>87500</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -4531,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F121" t="s">
         <v>95</v>
@@ -4543,12 +4550,12 @@
         <f>D121*G121</f>
         <v>800000</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="3">
         <f t="shared" si="4"/>
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4574,12 +4581,12 @@
         <f>D122*G122</f>
         <v>50000</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="3">
         <f t="shared" si="4"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4606,12 +4613,12 @@
         <v>35000</v>
       </c>
       <c r="I123" s="2"/>
-      <c r="K123">
+      <c r="K123" s="3">
         <f t="shared" si="4"/>
-        <v>8750</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4637,12 +4644,12 @@
         <f t="shared" ref="H124:H184" si="7">D124*G124</f>
         <v>100000</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4668,12 +4675,12 @@
         <f t="shared" si="7"/>
         <v>750000</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="3">
         <f t="shared" si="4"/>
         <v>390000</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4699,12 +4706,12 @@
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-      <c r="K126">
+      <c r="K126" s="3">
         <f t="shared" si="4"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4730,12 +4737,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4761,12 +4768,12 @@
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="3">
         <f t="shared" si="4"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4792,12 +4799,12 @@
         <f t="shared" si="7"/>
         <v>300000</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="3">
         <f t="shared" si="4"/>
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4823,12 +4830,12 @@
         <f t="shared" si="7"/>
         <v>20000</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="3">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4854,12 +4861,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K131">
-        <f t="shared" ref="K131:K184" si="8">IF(E131="INTERNALSTORAGE",H131*52%,IF(E131="SERVICE",H131*100%,IF(E131="DISPLAY",H131*50%,IF(E131="RAM",H131*65%,IF(E131="SOFTWARE",H131*100%,IF(E131="BATTERY",H131*70%,IF(E131="KEYBOARD",H131*60%,IF(E131="ADAPTOR",H131*45%,IF(E131="MAINBOARD",H131*15%,IF(E131="ACCESSORIES",H131*25%,IF(E131="VGA",H131*15%,IF(E131="POWERSUPPLY",H131*40%,IF(E131="PROCESSOR",H131*20%,IF(E131="SECOND",H131*150%,IF(E131="CASING",H131*15%,IF(E131="MONITOR",H131*5%,IF(E131="EXTERNALSTORAGE",100000,H131)))))))))))))))))</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K131" s="3">
+        <f t="shared" ref="K131:K184" si="8">IF(E131="INTERNALSTORAGE",H131*52%,IF(E131="SERVICE",H131*100%,IF(E131="DISPLAY",H131*50%,IF(E131="RAM",H131*52%,IF(E131="SOFTWARE",H131*100%,IF(E131="BATTERY",H131*45%,IF(E131="KEYBOARD",150000,IF(E131="ADAPTOR",H131*40%,IF(E131="MAINBOARD",100000,IF(E131="ACCESSORIES",H131*35%,IF(E131="VGA",100000,IF(E131="POWERSUPPLY",H131*30%,IF(E131="PROCESSOR",150000,IF(E131="SECOND",H131*150%,IF(E131="CASING",100000,IF(E131="MONITOR",100000,IF(E131="EXTERNALSTORAGE",100000,H131)))))))))))))))))</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4885,12 +4892,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K132">
+      <c r="K132" s="3">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4916,12 +4923,12 @@
         <f t="shared" si="7"/>
         <v>550000</v>
       </c>
-      <c r="K133">
+      <c r="K133" s="3">
         <f t="shared" si="8"/>
         <v>550000</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4947,12 +4954,12 @@
         <f t="shared" si="7"/>
         <v>200000</v>
       </c>
-      <c r="K134">
+      <c r="K134" s="3">
         <f t="shared" si="8"/>
         <v>200000</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4978,12 +4985,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="3">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5009,12 +5016,12 @@
         <f t="shared" si="7"/>
         <v>180000</v>
       </c>
-      <c r="K136">
+      <c r="K136" s="3">
         <f t="shared" si="8"/>
-        <v>117000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5040,12 +5047,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K137">
+      <c r="K137" s="3">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5071,12 +5078,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="3">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5102,12 +5109,12 @@
         <f t="shared" si="7"/>
         <v>600000</v>
       </c>
-      <c r="K139">
+      <c r="K139" s="3">
         <f t="shared" si="8"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5133,12 +5140,12 @@
         <f t="shared" si="7"/>
         <v>200000</v>
       </c>
-      <c r="K140">
+      <c r="K140" s="3">
         <f t="shared" si="8"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5164,12 +5171,12 @@
         <f t="shared" si="7"/>
         <v>200000</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="3">
         <f t="shared" si="8"/>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5195,12 +5202,12 @@
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="K142">
+      <c r="K142" s="3">
         <f t="shared" si="8"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5226,12 +5233,12 @@
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="3">
         <f t="shared" si="8"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5257,12 +5264,12 @@
         <f t="shared" si="7"/>
         <v>550000</v>
       </c>
-      <c r="K144">
+      <c r="K144" s="3">
         <f t="shared" si="8"/>
-        <v>82500</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5288,12 +5295,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="3">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5319,12 +5326,12 @@
         <f t="shared" si="7"/>
         <v>250000</v>
       </c>
-      <c r="K146">
+      <c r="K146" s="3">
         <f t="shared" si="8"/>
-        <v>112500</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5350,12 +5357,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K147">
+      <c r="K147" s="3">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5381,12 +5388,12 @@
         <f t="shared" si="7"/>
         <v>200000</v>
       </c>
-      <c r="K148">
+      <c r="K148" s="3">
         <f t="shared" si="8"/>
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5412,12 +5419,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K149">
+      <c r="K149" s="3">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5443,12 +5450,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K150">
+      <c r="K150" s="3">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5474,12 +5481,12 @@
         <f t="shared" si="7"/>
         <v>350000</v>
       </c>
-      <c r="K151">
+      <c r="K151" s="3">
         <f t="shared" si="8"/>
         <v>182000</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5505,12 +5512,12 @@
         <f t="shared" si="7"/>
         <v>180000</v>
       </c>
-      <c r="K152">
+      <c r="K152" s="3">
         <f t="shared" si="8"/>
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5536,12 +5543,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K153">
+      <c r="K153" s="3">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5567,12 +5574,12 @@
         <f t="shared" si="7"/>
         <v>400000</v>
       </c>
-      <c r="K154">
+      <c r="K154" s="3">
         <f t="shared" si="8"/>
         <v>208000</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5598,12 +5605,12 @@
         <f t="shared" si="7"/>
         <v>200000</v>
       </c>
-      <c r="K155">
+      <c r="K155" s="3">
         <f t="shared" si="8"/>
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5629,12 +5636,12 @@
         <f t="shared" si="7"/>
         <v>700000</v>
       </c>
-      <c r="K156">
+      <c r="K156" s="3">
         <f t="shared" si="8"/>
         <v>350000</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5660,12 +5667,12 @@
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="K157">
+      <c r="K157" s="3">
         <f t="shared" si="8"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5691,12 +5698,12 @@
         <f t="shared" si="7"/>
         <v>150000</v>
       </c>
-      <c r="K158">
+      <c r="K158" s="3">
         <f t="shared" si="8"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5722,12 +5729,12 @@
         <f t="shared" si="7"/>
         <v>130000</v>
       </c>
-      <c r="K159">
+      <c r="K159" s="3">
         <f t="shared" si="8"/>
-        <v>32500</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5753,12 +5760,12 @@
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-      <c r="K160">
+      <c r="K160" s="3">
         <f t="shared" si="8"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5784,12 +5791,12 @@
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-      <c r="K161">
+      <c r="K161" s="3">
         <f t="shared" si="8"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5815,12 +5822,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K162">
+      <c r="K162" s="3">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5846,12 +5853,12 @@
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-      <c r="K163">
+      <c r="K163" s="3">
         <f t="shared" si="8"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5877,12 +5884,12 @@
         <f t="shared" si="7"/>
         <v>700000</v>
       </c>
-      <c r="K164">
+      <c r="K164" s="3">
         <f t="shared" si="8"/>
         <v>364000</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5908,12 +5915,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K165">
+      <c r="K165" s="3">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5939,12 +5946,12 @@
         <f t="shared" si="7"/>
         <v>700000</v>
       </c>
-      <c r="K166">
+      <c r="K166" s="3">
         <f t="shared" si="8"/>
         <v>350000</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5970,12 +5977,12 @@
         <f t="shared" si="7"/>
         <v>250000</v>
       </c>
-      <c r="K167">
+      <c r="K167" s="3">
         <f t="shared" si="8"/>
-        <v>175000</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6001,12 +6008,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K168">
+      <c r="K168" s="3">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6032,12 +6039,12 @@
         <f t="shared" si="7"/>
         <v>550000</v>
       </c>
-      <c r="K169">
+      <c r="K169" s="3">
         <f t="shared" si="8"/>
         <v>286000</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6063,12 +6070,12 @@
         <f t="shared" si="7"/>
         <v>400000</v>
       </c>
-      <c r="K170">
+      <c r="K170" s="3">
         <f t="shared" si="8"/>
         <v>208000</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6094,12 +6101,12 @@
         <f t="shared" si="7"/>
         <v>300000</v>
       </c>
-      <c r="K171">
+      <c r="K171" s="3">
         <f t="shared" si="8"/>
-        <v>195000</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6125,12 +6132,12 @@
         <f t="shared" si="7"/>
         <v>200000</v>
       </c>
-      <c r="K172">
+      <c r="K172" s="3">
         <f t="shared" si="8"/>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6156,12 +6163,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K173">
+      <c r="K173" s="3">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6187,12 +6194,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K174">
+      <c r="K174" s="3">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6218,12 +6225,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K175">
+      <c r="K175" s="3">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6249,12 +6256,12 @@
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-      <c r="K176">
+      <c r="K176" s="3">
         <f t="shared" si="8"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6280,12 +6287,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K177">
+      <c r="K177" s="3">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6311,12 +6318,12 @@
         <f t="shared" si="7"/>
         <v>550000</v>
       </c>
-      <c r="K178">
+      <c r="K178" s="3">
         <f t="shared" si="8"/>
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6342,12 +6349,12 @@
         <f t="shared" si="7"/>
         <v>550000</v>
       </c>
-      <c r="K179">
+      <c r="K179" s="3">
         <f t="shared" si="8"/>
         <v>286000</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6373,12 +6380,12 @@
         <f t="shared" si="7"/>
         <v>200000</v>
       </c>
-      <c r="K180">
+      <c r="K180" s="3">
         <f t="shared" si="8"/>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6404,12 +6411,12 @@
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="K181">
+      <c r="K181" s="3">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6435,12 +6442,12 @@
         <f t="shared" si="7"/>
         <v>200000</v>
       </c>
-      <c r="K182">
+      <c r="K182" s="3">
         <f t="shared" si="8"/>
         <v>200000</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6466,12 +6473,12 @@
         <f t="shared" si="7"/>
         <v>550000</v>
       </c>
-      <c r="K183">
+      <c r="K183" s="3">
         <f t="shared" si="8"/>
         <v>286000</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6497,13 +6504,19 @@
         <f t="shared" si="7"/>
         <v>650000</v>
       </c>
-      <c r="K184">
+      <c r="K184" s="3">
         <f t="shared" si="8"/>
         <v>325000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K184" xr:uid="{462EAC0A-0397-42E0-AE4C-2F8CF093207F}"/>
+  <autoFilter ref="A1:K184" xr:uid="{462EAC0A-0397-42E0-AE4C-2F8CF093207F}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="MONITOR"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>